--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1676374.679631831</v>
+        <v>-1679075.54834923</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>268.8586716608942</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.96527437617304</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>135.357139140208</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.86976310636516</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>232.7071512581192</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>98.20005044562726</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>132.7171128986108</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.73130585580087</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2696524289587</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>196.3363635822388</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.0477797924945</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>213.792628336205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>129.3292263586707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>24.06466448614297</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>243.1373908222626</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.7047073980814</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1321.26637541962</v>
+        <v>747.4605501579504</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.26637541962</v>
+        <v>747.4605501579504</v>
       </c>
       <c r="D2" t="n">
-        <v>1321.26637541962</v>
+        <v>389.1948515511998</v>
       </c>
       <c r="E2" t="n">
-        <v>935.4781228213753</v>
+        <v>389.1948515511998</v>
       </c>
       <c r="F2" t="n">
-        <v>524.4922180317678</v>
+        <v>389.1948515511998</v>
       </c>
       <c r="G2" t="n">
-        <v>108.7874677560567</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.7874677560567</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>1507.526148483152</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1134.060390222072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.26637541962</v>
+        <v>1134.060390222072</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710445</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1696.851004984813</v>
+        <v>466.9249370526154</v>
       </c>
       <c r="C4" t="n">
-        <v>1527.914822056906</v>
+        <v>466.9249370526154</v>
       </c>
       <c r="D4" t="n">
-        <v>1377.79818264457</v>
+        <v>466.9249370526154</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.885089062177</v>
+        <v>319.0118434702223</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564267</v>
+        <v>172.1218959723119</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>172.1218959723119</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W4" t="n">
-        <v>2327.2815998566</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X4" t="n">
-        <v>2099.292048958583</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y4" t="n">
-        <v>1878.499469815052</v>
+        <v>648.5734018828551</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.685290191162</v>
+        <v>906.1570541554031</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>906.1570541554031</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>547.8913555486527</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>162.1031029504084</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4565,25 +4565,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2303.582431130048</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2303.582431130048</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1972.519543786478</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>1619.750888516364</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>1246.285130255284</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1246.285130255284</v>
+        <v>906.1570541554031</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>575.6256845144202</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458918</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>927.5959500216833</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>758.6597670937764</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>608.5431276814406</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>460.6300340990475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X7" t="n">
-        <v>1109.244414851923</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>1109.244414851923</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.9374416333219</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2239.320561752646</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>1985.739501016826</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V8" t="n">
-        <v>1654.676613673255</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="W8" t="n">
-        <v>1654.676613673255</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="X8" t="n">
-        <v>1654.676613673255</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="Y8" t="n">
-        <v>1264.537281697444</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>746.2022533886562</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>518.2127024906389</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.2127024906389</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.9025067654818</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782993</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038381</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V13" t="n">
-        <v>1557.75027167423</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W13" t="n">
-        <v>1268.333101637269</v>
+        <v>1211.329899359461</v>
       </c>
       <c r="X13" t="n">
-        <v>1040.343550739252</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>819.5509715957215</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311365</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613763</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,28 +6011,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
         <v>1373.553594266881</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7324,31 +7324,31 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311317</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30.36925650589399</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589387</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>154.0169020165194</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.6890311120598</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>8.744638296297424</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>69.43619774985453</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.81584707847182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>122.8084169651573</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>201.6449909028942</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>43.04708356698157</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-7.267520046882033e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1298143.943119145</v>
+        <v>1298143.943119146</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1298143.943119145</v>
+        <v>1298143.943119146</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1298143.943119145</v>
+        <v>1298143.943119146</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.0090104515</v>
+        <v>99467.00901045147</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42973.54596471234</v>
+        <v>42973.54596471222</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719585</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719587</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.36846171961</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.3684617197</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>7507.36846171968</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719656</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.36846171969</v>
-      </c>
       <c r="K4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="L4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481312</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="P4" t="n">
         <v>15498.22772481313</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481313</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481313</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481313</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151196.092970025</v>
+        <v>-1151590.913911178</v>
       </c>
       <c r="C6" t="n">
-        <v>-102895.3705069466</v>
+        <v>-102895.3705069465</v>
       </c>
       <c r="D6" t="n">
         <v>-102895.3705069466</v>
       </c>
       <c r="E6" t="n">
-        <v>-495043.3499566718</v>
+        <v>-495078.087882108</v>
       </c>
       <c r="F6" t="n">
-        <v>12442.09166787412</v>
+        <v>12407.3537424385</v>
       </c>
       <c r="G6" t="n">
-        <v>12442.09166787405</v>
+        <v>12407.35374243846</v>
       </c>
       <c r="H6" t="n">
-        <v>12442.09166787412</v>
+        <v>12407.35374243844</v>
       </c>
       <c r="I6" t="n">
-        <v>12442.09166787412</v>
+        <v>12407.35374243841</v>
       </c>
       <c r="J6" t="n">
-        <v>-155163.0861421085</v>
+        <v>-155197.824067544</v>
       </c>
       <c r="K6" t="n">
-        <v>-14933.79609271785</v>
+        <v>-14933.79609271795</v>
       </c>
       <c r="L6" t="n">
-        <v>4493.921900913832</v>
+        <v>4493.921900913876</v>
       </c>
       <c r="M6" t="n">
-        <v>-128113.3718280127</v>
+        <v>-128113.3718280129</v>
       </c>
       <c r="N6" t="n">
         <v>4493.921900913963</v>
       </c>
       <c r="O6" t="n">
-        <v>4493.921900913992</v>
+        <v>4493.921900913963</v>
       </c>
       <c r="P6" t="n">
-        <v>-14933.79609271779</v>
+        <v>-14933.79609271781</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26793,28 +26793,28 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>213.883829577205</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>77.81531140527431</v>
+        <v>132.3817460487637</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>308.6759952960842</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>73.94107208162293</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>53.68974216713038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.44000296007849</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.32182139799491</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.7044786776404</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>72.73037000038605</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.913349478854798e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29521,13 +29521,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500289</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>414.6448185524864</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>397.3005887879345</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294262</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>340.6043982600042</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,13 +35024,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295703</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>272.510784630468</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
